--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0A9720-1F28-40B0-9E14-49C03C530738}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F170F8-6DC5-4807-8AFC-C4266D546CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,6 @@
 give_case_auth=True
 manage_user_auth=True
 over_case_auth=True
-rename_case_auth=True
 share_case_auth=True</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -952,7 +951,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="108" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>78</v>
       </c>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F170F8-6DC5-4807-8AFC-C4266D546CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAD76C7-992E-4B43-967A-42F48BEB6837}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,20 +101,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username=
-password=123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_password_none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username=yaocheng
-password=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密码为空进行登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,11 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username=
-password=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_username_wrong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,21 +125,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username=yyyyxxxx
-password=123456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_password_wrong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>密码错误进行登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username=yaocheng
-password=1234567777987</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,6 +468,36 @@
 manage_user_auth=True
 over_case_auth=True
 share_case_auth=True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=yaocheng
+password=1234567777987
+msg=用户密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=
+password=123456
+msg=数据库操作失败，用户名不存在或者错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=yaocheng
+password=
+msg=用户密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=
+password=
+msg=数据库操作失败，用户名不存在或者错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=yyyyxxxx
+password=123456
+msg=数据库操作失败，用户名不存在或者错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,8 +955,8 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -987,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -995,331 +1000,331 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="108" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAD76C7-992E-4B43-967A-42F48BEB6837}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3134BF-9179-4C61-A7BA-62B05172D9AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -955,8 +955,8 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3134BF-9179-4C61-A7BA-62B05172D9AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FFD2BE-C73B-4CF3-97B5-A17ED5C6253D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="鉴定系统接口自动化" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">鉴定系统接口自动化!$A$1:$D$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">鉴定系统接口自动化!$A$1:$D$57</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
   <si>
     <t>测试数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,6 +498,18 @@
     <t>username=yyyyxxxx
 password=123456
 msg=数据库操作失败，用户名不存在或者错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增同名案件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_same_name_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg_keyword=案件名存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,11 +964,11 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1141,77 +1153,77 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>90</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>39</v>
@@ -1219,76 +1231,76 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>53</v>
@@ -1296,39 +1308,47 @@
     </row>
     <row r="34" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="6"/>
+    <row r="37" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
@@ -1386,6 +1406,9 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="6"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test_case.xlsx
+++ b/test_case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FFD2BE-C73B-4CF3-97B5-A17ED5C6253D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB2E031-6EB3-45E7-AF2F-2F3E443A1667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="786" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="鉴定系统接口自动化" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">鉴定系统接口自动化!$A$1:$D$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">鉴定系统接口自动化!$A$1:$D$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t>测试数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,6 +510,62 @@
   </si>
   <si>
     <t>msg_keyword=案件名存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_remove_other_people_case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除其他人的案件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_level_1_case_classify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建一级案件分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_level_2_case_classify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建二级案件分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_edit_case_classify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑案件分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_remove_case_classify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除案件分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path=./file/1.wav
+target_user_group=都君
+target_username=lily
+target_password=123456
+msg=当前案件为他人案件，不可删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_case_to_classify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增案件到指定案件分类下</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -677,6 +733,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -964,16 +1026,16 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.75" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
@@ -1164,77 +1226,74 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>39</v>
@@ -1242,131 +1301,167 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="34" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="121.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+    <row r="39" spans="1:3" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
+    <row r="40" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
+      <c r="A41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="6"/>
+      <c r="A42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
+      <c r="A43" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
@@ -1409,6 +1504,12 @@
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="6"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
